--- a/docs/ELA_TableauDeSyntheses.xlsx
+++ b/docs/ELA_TableauDeSyntheses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75FAA51566E048CA/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Desktop\Esteban\Code\Portefolio-main\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E972D1C1-7DC4-4F2D-A468-CE7DB7727F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66D9FB-CC1C-45FF-A18B-54168A13EE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -107,60 +107,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Exploiter des réferentiel, normes et standard adoptés par le prestataire informatique : </t>
-  </si>
-  <si>
-    <t>Traiter des demande concernant les services réseaux et applicatifs :</t>
-  </si>
-  <si>
-    <t>Participer à l'évolution d'un site web exploitant les données de l'organisation :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluer les indicateurs de suivi d'un projet et analyser les écarts : </t>
-  </si>
-  <si>
-    <t>Déployer un service :</t>
-  </si>
-  <si>
-    <t>Mettre en oeuvre des outils et stratégies de veille informationelle :</t>
-  </si>
-  <si>
-    <t>Réalisations professionnelles : le TP sur le morpion et le quizz de Mr Szylobryt</t>
-  </si>
-  <si>
-    <t>Réalisations professionnelles : 02b - LAMP GLPI avec Mr Bloyet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations professionnelles : le TP SiteCyberNews dynamique - V3 de Mme BARANGER
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations professionnelles : Site web en équipe avec la réalisation d'un trello / Site web équipe de Mme BARANGER
-</t>
-  </si>
-  <si>
-    <t>Réalisations professionnelles : le TP sur la Sauvegarde d'un ordinateur ( deploiement de fog ) de Mr Letailleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations professionnelles : le TP 07 - Veille 01 : Dépôt du ppt de veille et PDF des news de Mme BARANGER
-</t>
-  </si>
-  <si>
-    <t>Documents associés : Livre C# partie 1 et 2</t>
-  </si>
-  <si>
-    <t>Documents associés : 03 - La gestion des Incidents avec GLPI avec Mr Bloyet</t>
-  </si>
-  <si>
-    <t>Documents associés : Documentation dynamisation php</t>
-  </si>
-  <si>
-    <t>Documents associés : Sauvegarde d'un ordinateur</t>
-  </si>
-  <si>
-    <t>Documents associés : 03 - Présentation des oraux de veille</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
@@ -172,12 +118,48 @@
   <si>
     <t>Option : SLAM</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>CyberNews</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Site en équipe</t>
+  </si>
+  <si>
+    <t>Gestion des utilisateurs</t>
+  </si>
+  <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>Projet C#</t>
+  </si>
+  <si>
+    <t>Veille Technologique</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,6 +193,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -612,6 +601,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,26 +627,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,36 +860,36 @@
   </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="107.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="107.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="28" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -917,16 +912,16 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -949,18 +944,18 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>41</v>
+      <c r="A3" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -983,15 +978,15 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -1021,10 +1016,10 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1067,8 +1062,8 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1108,8 +1103,8 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="25"/>
@@ -1118,7 +1113,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1141,26 +1136,26 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>27</v>
+      <c r="D8" s="36" t="s">
+        <v>37</v>
       </c>
+      <c r="E8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1183,25 +1178,19 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="36" t="s">
+        <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>33</v>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1225,25 +1214,17 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="36" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1267,10 +1248,14 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1297,13 +1282,21 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1327,14 +1320,20 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1357,11 +1356,15 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
@@ -1387,13 +1390,21 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1417,14 +1428,20 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1447,14 +1464,20 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1477,16 +1500,16 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>39</v>
+      <c r="A18" s="34" t="s">
+        <v>22</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1719,16 +1742,16 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>40</v>
+      <c r="A26" s="34" t="s">
+        <v>23</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -30942,20 +30965,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>